--- a/conf/shell_web/operationPlatform.xlsx
+++ b/conf/shell_web/operationPlatform.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12940"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+  <si>
+    <t>testcase</t>
+  </si>
   <si>
     <t>descrption</t>
   </si>
@@ -47,6 +49,9 @@
     <t>saves</t>
   </si>
   <si>
+    <t>after_verify</t>
+  </si>
+  <si>
     <t>dbtype</t>
   </si>
   <si>
@@ -66,6 +71,9 @@
   </si>
   <si>
     <t>LOOP_SLEEP</t>
+  </si>
+  <si>
+    <t>operationPlatform</t>
   </si>
   <si>
     <t>B2B shell web-getToken</t>
@@ -81,31 +89,34 @@
     <t>{'content-type':'application/x-www-form-urlencoded'}</t>
   </si>
   <si>
-    <t>{"username":"huan.zhang@thoughtworks.com",
-"password":"12345678",
+    <t>{"username":"@{username}",
+"password":"@{password}",
 "client_id":"lubemaster-rest-client",
 "client_secret":"${client_secret}",
 "grant_type":"password"}</t>
   </si>
   <si>
+    <t>status=@{status};time&lt;5000</t>
+  </si>
+  <si>
+    <t>authorization=$.access_token</t>
+  </si>
+  <si>
+    <t>B2B shell web-获取token-iot-ops-redirect</t>
+  </si>
+  <si>
+    <t>https://${url}/api/bi/iot-ops/redirect</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{'authorization':'${authorization}'}</t>
+  </si>
+  <si>
     <t>status=200;time&lt;5000</t>
   </si>
   <si>
-    <t>authorization=$.access_token</t>
-  </si>
-  <si>
-    <t>B2B shell web-获取token-iot-ops-redirect</t>
-  </si>
-  <si>
-    <t>https://${url}/api/bi/iot-ops/redirect</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{'authorization':'${authorization}'}</t>
-  </si>
-  <si>
     <t>token=text</t>
   </si>
   <si>
@@ -190,16 +201,10 @@
     <t>{'authorization':'${token}','content-type':'application/json;charset=UTF-8'}</t>
   </si>
   <si>
-    <t>{'beginTime':1621526400000,'endTime':1622217600000}</t>
+    <t>{'beginTime':'1621526400000','endTime':'1622217600000'}</t>
   </si>
   <si>
     <t>status=200;time&lt;5000;headerIn=Content-Type</t>
-  </si>
-  <si>
-    <t>shell_b2b_dev</t>
-  </si>
-  <si>
-    <t>SELECT * FROM factory where distributorId=100</t>
   </si>
 </sst>
 </file>
@@ -207,8 +212,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -235,47 +240,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,61 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,16 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +322,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -405,19 +410,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,19 +506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,127 +554,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +589,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,30 +666,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -666,186 +689,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1205,346 +1201,372 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.8076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="61.9230769230769" customWidth="1"/>
-    <col min="2" max="2" width="65.6153846153846" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.30769230769231" customWidth="1"/>
-    <col min="4" max="4" width="54.1538461538462" customWidth="1"/>
-    <col min="5" max="5" width="8.07692307692308" customWidth="1"/>
-    <col min="6" max="6" width="47.2788461538462" customWidth="1"/>
-    <col min="7" max="7" width="50.9615384615385" customWidth="1"/>
-    <col min="8" max="8" width="4.53846153846154" customWidth="1"/>
-    <col min="9" max="9" width="41.1538461538462" customWidth="1"/>
-    <col min="10" max="10" width="27.1153846153846" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.61538461538461" style="8" customWidth="1"/>
-    <col min="12" max="12" width="40.8557692307692" style="8" customWidth="1"/>
-    <col min="13" max="13" width="40.8557692307692" customWidth="1"/>
-    <col min="14" max="14" width="27.0769230769231" customWidth="1"/>
-    <col min="15" max="17" width="19.5384615384615" style="6" customWidth="1"/>
-    <col min="18" max="16382" width="58.8076923076923" style="6" customWidth="1"/>
-    <col min="16383" max="16384" width="58.8076923076923" style="6"/>
+    <col min="1" max="1" width="58.8076923076923" style="3"/>
+    <col min="2" max="2" width="61.9230769230769" customWidth="1"/>
+    <col min="3" max="3" width="65.6153846153846" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.30769230769231" customWidth="1"/>
+    <col min="5" max="5" width="54.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="8.07692307692308" customWidth="1"/>
+    <col min="7" max="7" width="47.2788461538462" customWidth="1"/>
+    <col min="8" max="8" width="50.9615384615385" customWidth="1"/>
+    <col min="9" max="9" width="4.53846153846154" customWidth="1"/>
+    <col min="10" max="10" width="41.1538461538462" customWidth="1"/>
+    <col min="11" max="12" width="27.1153846153846" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.61538461538461" style="5" customWidth="1"/>
+    <col min="14" max="14" width="40.8557692307692" style="5" customWidth="1"/>
+    <col min="15" max="15" width="40.8557692307692" customWidth="1"/>
+    <col min="16" max="16" width="27.0769230769231" customWidth="1"/>
+    <col min="17" max="19" width="19.5384615384615" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="58.8076923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="17" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:19">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="84" spans="1:14">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    <row r="2" s="2" customFormat="1" ht="84" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
-    <row r="3" customFormat="1" ht="17" spans="1:12">
-      <c r="A3" t="s">
-        <v>24</v>
+    <row r="3" customFormat="1" ht="17" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" customFormat="1" ht="51" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="51" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="51" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="51" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="34" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" customFormat="1" ht="34" spans="1:13">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="34" spans="1:13">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="34" spans="1:13">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="34" spans="1:14">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="34" spans="1:10">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C7 C8 C3:C6 C9:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D7 D8 D3:D6 D9:D1048576">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K7 K3:K6 K9:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M7 M3:M6 M9:M1048576">
       <formula1>"mysql,mongodb"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://${url}/iot-ops-api/devices" tooltip="https://${url}/iot-ops-api/devices"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://${url}/iot-ops-api/devices/gateways" tooltip="https://${url}/iot-ops-api/devices/gateways"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://${url}/iot-ops-api/checkpoints" tooltip="https://${url}/iot-ops-api/checkpoints"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://${url}/iot-ops-api/alarms" tooltip="https://${url}/iot-ops-api/alarms"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://${url}/iot-ops-api/data-alarms" tooltip="https://${url}/iot-ops-api/data-alarms"/>
-    <hyperlink ref="B3" r:id="rId6" display="https://${url}/api/bi/iot-ops/redirect" tooltip="https://${url}/api/bi/iot-ops/redirect"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://${url}/iot-ops-api/data-alarms/export" tooltip="https://${url}/iot-ops-api/data-alarms/export"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://${url}/iot-ops-api/devices" tooltip="https://${url}/iot-ops-api/devices"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://${url}/iot-ops-api/devices/gateways" tooltip="https://${url}/iot-ops-api/devices/gateways"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://${url}/iot-ops-api/checkpoints" tooltip="https://${url}/iot-ops-api/checkpoints"/>
+    <hyperlink ref="C7" r:id="rId4" display="https://${url}/iot-ops-api/alarms" tooltip="https://${url}/iot-ops-api/alarms"/>
+    <hyperlink ref="C8" r:id="rId5" display="https://${url}/iot-ops-api/data-alarms" tooltip="https://${url}/iot-ops-api/data-alarms"/>
+    <hyperlink ref="C3" r:id="rId6" display="https://${url}/api/bi/iot-ops/redirect" tooltip="https://${url}/api/bi/iot-ops/redirect"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://${url}/iot-ops-api/data-alarms/export" tooltip="https://${url}/iot-ops-api/data-alarms/export"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" ht="116" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>